--- a/BDD/Conception BDD/MCD/GestionBibliotheque/Dictionnaire_de_donnée.xlsx
+++ b/BDD/Conception BDD/MCD/GestionBibliotheque/Dictionnaire_de_donnée.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>Code</t>
   </si>
@@ -74,9 +74,6 @@
     <t>date retour du livre</t>
   </si>
   <si>
-    <t>mémorisation des livres de l'abonné</t>
-  </si>
-  <si>
     <t>l'usure de chaque livre</t>
   </si>
   <si>
@@ -96,13 +93,163 @@
   </si>
   <si>
     <t>date demande livre</t>
+  </si>
+  <si>
+    <t>Entité</t>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t>Abonne</t>
+  </si>
+  <si>
+    <t>Categorie Professionnelle</t>
+  </si>
+  <si>
+    <t>Usure</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Editeur</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>Exemplaire</t>
+  </si>
+  <si>
+    <t>Emprunt</t>
+  </si>
+  <si>
+    <t>début de réservation</t>
+  </si>
+  <si>
+    <t>codeCat</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>codeRayon</t>
+  </si>
+  <si>
+    <t>dateNaissance</t>
+  </si>
+  <si>
+    <t>numAbonne</t>
+  </si>
+  <si>
+    <t>nomAbonne</t>
+  </si>
+  <si>
+    <t>adresseAbonne</t>
+  </si>
+  <si>
+    <t>telAbonne</t>
+  </si>
+  <si>
+    <t>dateAdhesion</t>
+  </si>
+  <si>
+    <t>catPro</t>
+  </si>
+  <si>
+    <t>dateEmprunt</t>
+  </si>
+  <si>
+    <t>dateRetour</t>
+  </si>
+  <si>
+    <t>typeUsure</t>
+  </si>
+  <si>
+    <t>titreLivre</t>
+  </si>
+  <si>
+    <t>nomAuteur</t>
+  </si>
+  <si>
+    <t>NomEditeur</t>
+  </si>
+  <si>
+    <t>typeGenre</t>
+  </si>
+  <si>
+    <t>dateDemandeReservation</t>
+  </si>
+  <si>
+    <t>dateDebutReservation</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>idLivre</t>
+  </si>
+  <si>
+    <t>dateAcquisition</t>
+  </si>
+  <si>
+    <t>idAbonne</t>
+  </si>
+  <si>
+    <t>categorieProfessionnelle</t>
+  </si>
+  <si>
+    <t>idCatPro</t>
+  </si>
+  <si>
+    <t>idUsure</t>
+  </si>
+  <si>
+    <t>idAuteur</t>
+  </si>
+  <si>
+    <t>idEditeur</t>
+  </si>
+  <si>
+    <t>nomEditeur</t>
+  </si>
+  <si>
+    <t>theme du livre</t>
+  </si>
+  <si>
+    <t>themeLivre</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>idTheme</t>
+  </si>
+  <si>
+    <t>nomTheme</t>
+  </si>
+  <si>
+    <t>idExemplaire</t>
+  </si>
+  <si>
+    <t>idReservation</t>
+  </si>
+  <si>
+    <t>idEmprunt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,19 +278,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -160,12 +321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,8 +348,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -259,11 +450,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,11 +489,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,19 +505,137 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -600,16 +933,16 @@
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,224 +955,575 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="12" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="16" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="16" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="16" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="16" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="17" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="18" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="18" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="21" t="s">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="20" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12" t="s">
+      <c r="E19" s="6"/>
+      <c r="J19" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="38"/>
+      <c r="G29" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="K29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="42"/>
+      <c r="K32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="54"/>
+      <c r="G33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J28:J29"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F20:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
